--- a/0.商務軟體分析_專題製作/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/商品管理與販售平台系統資料規格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CC415-1FC6-4E2A-AEA7-2AF07C8B3A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CD9E3-362F-475D-83D6-3BA8FB563653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19065" yWindow="2040" windowWidth="12975" windowHeight="15345" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
@@ -33,8 +33,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="A95" authorId="0" shapeId="0" xr:uid="{160D065B-18B4-4BB2-8B5B-68CE6DB8C691}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SKU </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>的設計通常與商品的款式、尺寸、顏色等屬性相關，是專門為庫存管理和銷售追蹤而生的</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="391">
   <si>
     <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -824,10 +868,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>實際庫存數量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>低於此數量要警示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1075,10 +1115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:待付款 2:已付款 3:處理中 4:已出貨 5:完成 6:取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收件地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1107,10 +1143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>對外顯示給支持者跟創作者 R20250901ABC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ProductName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1343,6 +1375,266 @@
   </si>
   <si>
     <t>預設款式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠界商店代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECPayMerchantID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠界分配的商店ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">綠界審核狀態 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECPayStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:未申請 2:審核中 3:已通過 4:被拒絕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台抽成比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformFeeRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 5.000 (5%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O202409020001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>對外顯示給支持者跟創作者 B20250901ABC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. ShippingAddresses.AddressID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">平台手續費 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformFee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數位商品不用運費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台視情況免手續費活動</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>創作者實收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorAmount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:信用卡 2:LINEPAY 3:超商取貨付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:待付款 2:付款中 3:已付款 4:付款失敗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:處理中 2:已出貨 3:已完成 4:已取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：綠界交易記錄表  Table Name :ECPayTransactions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易記錄編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransactionID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T20240902000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref.Order.OrderID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. Orders.OrderID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠界交易編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECPayTradeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款完成後綠界提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECPayPaymentType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠界的付款方式代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeAmount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tinyint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:建立 2:付款中 3:付款完成 4:失敗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. ShippingAddresses.AddressID(超商取貨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款完成時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼繳費號碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">驗證碼 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取貨期限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠界回傳資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVSPaymentNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVSValidationNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpireDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECPayReturnData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CheckMacValue </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 綠界提供的繳費代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠界提供的驗證碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupporterName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK (Price &gt;= 0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1350,7 +1642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1408,6 +1700,26 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1459,7 +1771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1535,13 +1847,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1590,6 +1913,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1605,10 +1931,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,22 +2250,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
-  <dimension ref="A2:P240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
+  <dimension ref="A2:P297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G240"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="56" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="57.625" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="19.5" customWidth="1"/>
@@ -1947,27 +2273,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2194,15 +2520,15 @@
       <c r="P15" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2294,15 +2620,15 @@
       <c r="G22" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2466,7 +2792,9 @@
         <v>27</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2485,7 +2813,9 @@
         <v>27</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -2504,38 +2834,40 @@
         <v>27</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>69</v>
+      <c r="A35" s="14" t="s">
+        <v>327</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D35" s="3">
+        <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>85</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>24</v>
@@ -2545,204 +2877,250 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>85</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>333</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>24</v>
+        <v>143</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D47" s="3">
         <v>36</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>237</v>
+      <c r="A48" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>8</v>
+      <c r="A49" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D49" s="3">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>24</v>
@@ -2750,508 +3128,466 @@
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="5">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="5">
-        <v>20</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="3">
-        <v>20</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A53" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="5">
-        <v>20</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="3" t="s">
-        <v>121</v>
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>105</v>
+      <c r="A55" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="5">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G55" s="3" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>106</v>
+      <c r="A56" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D56" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G56" s="3" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="5">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>107</v>
+      <c r="A58" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F58" s="10"/>
-      <c r="G58" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>108</v>
+      <c r="A59" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="3">
-        <v>200</v>
+      <c r="D59" s="5">
+        <v>20</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D60" s="3">
+        <v>20</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D61" s="5">
+        <v>20</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="5">
+        <v>50</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="5">
+        <v>20</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="5">
+        <v>20</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="65" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="3">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="3">
-        <v>36</v>
+      <c r="D68" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F68" s="10"/>
       <c r="G68" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
-        <v>148</v>
+      <c r="G69" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="A72" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D74" s="3">
         <v>8</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="3">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="D75" s="3">
         <v>36</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G75" s="3" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D76" s="3">
+        <v>40</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="3"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>24</v>
@@ -3260,17 +3596,19 @@
         <v>27</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>24</v>
@@ -3278,1554 +3616,1559 @@
       <c r="E78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>135</v>
+      <c r="A79" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D79" s="3">
+        <v>8</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G79" s="3" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>87</v>
+      <c r="A80" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D80" s="3">
+        <v>8</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G80" s="3" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+    <row r="88" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="3">
+        <v>8</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="3">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="3">
-        <v>8</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="3">
-        <v>8</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D88" s="5">
+      <c r="C95" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" s="5">
         <v>50</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" s="3">
-        <v>50</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" s="3">
-        <v>30</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D91" s="3">
-        <v>20</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" s="3">
-        <v>30</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D93" s="3">
-        <v>20</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>24</v>
+        <v>294</v>
+      </c>
+      <c r="D96" s="3">
+        <v>50</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>141</v>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>24</v>
+        <v>294</v>
+      </c>
+      <c r="D97" s="3">
+        <v>30</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>118</v>
+        <v>317</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="D98" s="3">
+        <v>20</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="4"/>
       <c r="G98" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>56</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>24</v>
+        <v>294</v>
+      </c>
+      <c r="D99" s="3">
+        <v>30</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>119</v>
+        <v>319</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>24</v>
+        <v>294</v>
+      </c>
+      <c r="D100" s="3">
+        <v>20</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="103" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="17"/>
-    </row>
-    <row r="104" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="3">
-        <v>8</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="3">
-        <v>8</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D107" s="5">
-        <v>500</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
-        <v>134</v>
+    <row r="108" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="18"/>
+    </row>
+    <row r="113" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="3">
+        <v>8</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="I108" s="15"/>
-    </row>
-    <row r="109" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="B115" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="3">
+        <v>8</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="D116" s="5">
+        <v>500</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C109" s="3" t="s">
+    </row>
+    <row r="118" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D118" s="5">
         <v>100</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+      <c r="E118" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3" t="s">
+      <c r="D119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="120" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3" t="s">
+      <c r="D120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="121" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="7"/>
-    </row>
-    <row r="115" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="17"/>
-    </row>
-    <row r="116" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="3">
-        <v>8</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="D121" s="5" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C122" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="124" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="3">
+        <v>8</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D127" s="5" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="5">
-        <v>200</v>
+        <v>143</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="17"/>
+      <c r="A131" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="132" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>7</v>
+      <c r="A132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>49</v>
+      <c r="A133" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="3">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F133" s="4"/>
       <c r="G133" s="3" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>152</v>
+      <c r="A134" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="3">
-        <v>50</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>24</v>
+      <c r="D135" s="5">
+        <v>200</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="18"/>
+    </row>
+    <row r="139" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="3">
+        <v>8</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="3">
+        <v>50</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+    <row r="143" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D143" s="3">
         <v>500</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="3" t="s">
+      <c r="E143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+    <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D144" s="3">
         <v>500</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="3" t="s">
+      <c r="E144" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+    <row r="145" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3" t="s">
+      <c r="D145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+    <row r="146" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3" t="s">
+      <c r="D146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" s="4"/>
-      <c r="G141" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A144" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="17"/>
-    </row>
-    <row r="145" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="3">
-        <v>8</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="18"/>
+    </row>
+    <row r="152" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="3">
+        <v>8</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="5">
+        <v>50</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B155" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="5">
+        <v>200</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="5">
+        <v>8</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D147" s="5">
-        <v>50</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="5">
-        <v>200</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" s="4"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="D157" s="5">
+        <v>500</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A162" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
+    </row>
+    <row r="163" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D164" s="3">
         <v>8</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" s="5">
-        <v>500</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3" t="s">
+      <c r="E164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A156" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="17"/>
-    </row>
-    <row r="157" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C158" s="3" t="s">
+    <row r="165" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="3">
-        <v>8</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="5">
+      <c r="D165" s="5">
         <v>36</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="3" t="s">
+      <c r="E165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G165" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="5">
-        <v>80</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="5">
-        <v>500</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F162" s="4"/>
-      <c r="G162" s="3"/>
-    </row>
-    <row r="163" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A163" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="5">
-        <v>200</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F163" s="4"/>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="4"/>
-      <c r="G164" s="3"/>
-    </row>
-    <row r="165" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="4"/>
-      <c r="G165" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D166" s="5">
+        <v>80</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3"/>
     </row>
     <row r="167" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>24</v>
@@ -4836,580 +5179,630 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
+    <row r="168" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="5">
+        <v>500</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" s="4"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="5">
+        <v>200</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" s="4"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="4"/>
+      <c r="G170" s="3"/>
+    </row>
     <row r="171" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A171" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="17"/>
+      <c r="A171" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="172" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A173" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="176" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A176" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="18"/>
+    </row>
+    <row r="177" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
+    <row r="178" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="C178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="3">
+        <v>8</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C173" s="3" t="s">
+    </row>
+    <row r="179" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D179" s="5">
+        <v>36</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="3">
         <v>8</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="3" t="s">
+      <c r="E180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="3">
+        <v>8</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A186" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="18"/>
+    </row>
+    <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="3">
+        <v>8</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A174" s="13" t="s">
+      <c r="G188" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C174" s="3" t="s">
+      <c r="B189" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D189" s="5">
         <v>36</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="3" t="s">
+      <c r="E189" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A175" s="13" t="s">
+    <row r="190" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C175" s="3" t="s">
+      <c r="B190" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D190" s="3">
         <v>8</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F175" s="3" t="s">
+      <c r="E190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A176" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C176" s="3" t="s">
+    <row r="191" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A195" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="18"/>
+    </row>
+    <row r="196" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A197" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D197" s="5">
+        <v>13</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F176" s="3" t="s">
+      <c r="B198" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="5">
+        <v>36</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G176" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="181" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A181" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B181" s="16"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="17"/>
-    </row>
-    <row r="182" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A183" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C183" s="3" t="s">
+      <c r="G198" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D199" s="3">
         <v>8</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A184" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="5">
-        <v>36</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="3" t="s">
+      <c r="E199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A185" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D185" s="3">
-        <v>8</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="4"/>
-      <c r="G187" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A191" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B191" s="16"/>
-      <c r="C191" s="16"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="17"/>
-    </row>
-    <row r="192" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A193" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" s="5">
-        <v>36</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A194" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="5">
-        <v>36</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D195" s="3">
-        <v>12</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-    </row>
-    <row r="197" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="4"/>
-      <c r="G197" s="3"/>
-    </row>
-    <row r="198" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D199" s="5">
-        <v>50</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
+      <c r="G199" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="200" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" s="5">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D200" s="3">
+        <v>12</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+      <c r="G200" s="3" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="201" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="5">
-        <v>300</v>
+        <v>25</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
     <row r="202" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>87</v>
+        <v>350</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>56</v>
+        <v>351</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="G202" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="203" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F203" s="4"/>
+      <c r="G203" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="204" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>264</v>
+      <c r="A204" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D204" s="3">
+        <v>20</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>27</v>
@@ -5417,339 +5810,377 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
+    <row r="205" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="5">
+        <v>50</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+    </row>
     <row r="207" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A207" s="16" t="s">
+      <c r="A207" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="5">
+        <v>300</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+    </row>
+    <row r="208" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+    </row>
+    <row r="209" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+    </row>
+    <row r="210" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="213" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A213" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="17"/>
-    </row>
-    <row r="208" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="18"/>
+    </row>
+    <row r="214" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="F214" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A209" s="13" t="s">
+    <row r="215" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A215" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B215" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C215" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D215" s="5">
+        <v>13</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="3">
+        <v>8</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="3">
+        <v>8</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="3">
+        <v>100</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A210" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="3">
-        <v>8</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B211" s="3" t="s">
+      <c r="B219" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="4"/>
+      <c r="G219" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" s="4"/>
+      <c r="G220" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="3">
-        <v>100</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C212" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D212" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F212" s="4"/>
-      <c r="G212" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F213" s="4"/>
-      <c r="G213" s="3" t="s">
+      <c r="D221" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" s="4"/>
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="4"/>
+      <c r="G222" s="3" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F214" s="4"/>
-      <c r="G214" s="3"/>
-    </row>
-    <row r="215" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F215" s="4"/>
-      <c r="G215" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A218" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B218" s="16"/>
-      <c r="C218" s="16"/>
-      <c r="D218" s="16"/>
-      <c r="E218" s="16"/>
-      <c r="F218" s="16"/>
-      <c r="G218" s="17"/>
-    </row>
-    <row r="219" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A220" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" s="3">
-        <v>8</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A221" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" s="5">
-        <v>36</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A222" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="5">
-        <v>36</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F223" s="4"/>
-      <c r="G223" s="3"/>
+      <c r="G223" s="3" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="224" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>164</v>
+        <v>341</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F224" s="4"/>
-      <c r="G224" s="3"/>
+      <c r="G224" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="225" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>24</v>
@@ -5762,162 +6193,697 @@
     </row>
     <row r="226" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" s="4"/>
+      <c r="G226" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A229" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="18"/>
+    </row>
+    <row r="230" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A231" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" s="5">
+        <v>15</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A232" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="5">
+        <v>13</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A233" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="3">
+        <v>8</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D234" s="3">
+        <v>20</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="3">
+        <v>20</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="3">
+        <v>20</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F236" s="4"/>
+      <c r="G236" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237" s="4"/>
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="4"/>
+      <c r="G238" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="4"/>
+      <c r="G239" s="3"/>
+    </row>
+    <row r="240" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F240" s="4"/>
+      <c r="G240" s="3"/>
+    </row>
+    <row r="241" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="5">
+        <v>20</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F241" s="4"/>
+      <c r="G241" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="5">
+        <v>10</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F242" s="4"/>
+      <c r="G242" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A243" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" s="4"/>
+      <c r="G243" s="3"/>
+    </row>
+    <row r="244" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244" s="4"/>
+      <c r="G244" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="5">
+        <v>100</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245" s="4"/>
+      <c r="G245" s="3"/>
+    </row>
+    <row r="248" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A248" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B248" s="17"/>
+      <c r="C248" s="17"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="17"/>
+      <c r="G248" s="18"/>
+    </row>
+    <row r="249" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A250" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="3">
+        <v>8</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A251" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="5">
+        <v>36</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A252" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="5">
+        <v>36</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253" s="4"/>
+      <c r="G253" s="3"/>
+    </row>
+    <row r="254" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" s="4"/>
+      <c r="G254" s="3"/>
+    </row>
+    <row r="255" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F255" s="4"/>
+      <c r="G255" s="3"/>
+    </row>
+    <row r="256" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C226" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D226" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F226" s="4"/>
-      <c r="G226" s="3"/>
-    </row>
-    <row r="235" spans="1:7" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B235" s="22"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="E235" s="22"/>
-      <c r="F235" s="22"/>
-      <c r="G235" s="22"/>
-    </row>
-    <row r="236" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A236" s="16" t="s">
+      <c r="D256" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F256" s="4"/>
+      <c r="G256" s="3"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B259" s="22"/>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
+    </row>
+    <row r="260" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A260" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="17"/>
+      <c r="F260" s="17"/>
+      <c r="G260" s="18"/>
+    </row>
+    <row r="261" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A262" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B236" s="16"/>
-      <c r="C236" s="16"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="17"/>
-    </row>
-    <row r="237" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A238" s="13" t="s">
+      <c r="B262" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C238" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D262" s="3">
         <v>8</v>
       </c>
-      <c r="E238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F238" s="3" t="s">
+      <c r="E262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F262" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G238" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A239" s="13" t="s">
+      <c r="G262" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A263" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B263" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D239" s="3">
+      <c r="D263" s="3">
         <v>8</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" s="3" t="s">
+      <c r="E263" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F263" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G239" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A240" s="13" t="s">
+      <c r="G263" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A264" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B264" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D264" s="3">
         <v>36</v>
       </c>
-      <c r="E240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F240" s="3" t="s">
+      <c r="E264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F264" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G240" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="297" spans="1:7" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+      <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297"/>
+      <c r="G297"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A235:G235"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A191:G191"/>
-    <mergeCell ref="A207:G207"/>
-    <mergeCell ref="A218:G218"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="A156:G156"/>
-    <mergeCell ref="A236:G236"/>
-    <mergeCell ref="A181:G181"/>
+  <mergeCells count="21">
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A248:G248"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="A162:G162"/>
+    <mergeCell ref="A213:G213"/>
+    <mergeCell ref="A229:G229"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A186:G186"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A53:G53"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="A176:G176"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A259:G259"/>
+    <mergeCell ref="A195:G195"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/0.商務軟體分析_專題製作/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/商品管理與販售平台系統資料規格.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CD9E3-362F-475D-83D6-3BA8FB563653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D69CA-EDF5-4305-865C-9CBC1E39DA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="2040" windowWidth="12975" windowHeight="15345" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
+    <workbookView xWindow="52680" yWindow="240" windowWidth="12975" windowHeight="15345" activeTab="1" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="資料字典" sheetId="1" r:id="rId1"/>
+    <sheet name="所有表格" sheetId="2" r:id="rId1"/>
+    <sheet name="資料字典" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="A95" authorId="0" shapeId="0" xr:uid="{160D065B-18B4-4BB2-8B5B-68CE6DB8C691}">
+    <comment ref="A106" authorId="0" shapeId="0" xr:uid="{160D065B-18B4-4BB2-8B5B-68CE6DB8C691}">
       <text>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="438">
   <si>
     <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -292,10 +293,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有設定本地密碼就有值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否email認證</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,10 +337,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:正常 2:停用 3:鎖定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>銀行帳號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -412,10 +405,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:待審核 2:已通過 3:未通過</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>創作者狀態</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -999,18 +988,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Entity：會員喜好設定  Table Name : MemberPreferences </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreferenceID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DI000001/PH000001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1023,38 +1000,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MP000001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Entity：購物車 Table Name : ShoppingCart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>購物車編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>數量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加入日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CartID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Quantity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SC000001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收藏編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1290,10 +1243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>先不要做</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VariationName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1402,10 +1351,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:未申請 2:審核中 3:已通過 4:被拒絕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>平台抽成比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1426,10 +1371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>對外顯示給支持者跟創作者 B20250901ABC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ref. ShippingAddresses.AddressID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1635,6 +1576,198 @@
   </si>
   <si>
     <t>CHECK (Price &gt;= 0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格清單</t>
+  </si>
+  <si>
+    <t>編號</t>
+  </si>
+  <si>
+    <t>表格名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>主要功能</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>會員主檔</t>
+  </si>
+  <si>
+    <t>管理所有會員基本資料</t>
+  </si>
+  <si>
+    <t>MemberRoles</t>
+  </si>
+  <si>
+    <t>會員角色</t>
+  </si>
+  <si>
+    <t>定義會員角色(創作者/支持者)</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>商品分類</t>
+  </si>
+  <si>
+    <t>全站商品分類管理</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>創作者</t>
+  </si>
+  <si>
+    <t>創作者詳細資料與設定</t>
+  </si>
+  <si>
+    <t>Supporter</t>
+  </si>
+  <si>
+    <t>支持者</t>
+  </si>
+  <si>
+    <t>支持者資料與設定</t>
+  </si>
+  <si>
+    <t>ProductSeries</t>
+  </si>
+  <si>
+    <t>系列分類</t>
+  </si>
+  <si>
+    <t>創作者自定義商品系列</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>商品主檔</t>
+  </si>
+  <si>
+    <t>商品基本資料</t>
+  </si>
+  <si>
+    <t>ProductVariations</t>
+  </si>
+  <si>
+    <t>商品款式</t>
+  </si>
+  <si>
+    <t>商品的不同款式與庫存</t>
+  </si>
+  <si>
+    <t>ProductImages</t>
+  </si>
+  <si>
+    <t>商品圖片</t>
+  </si>
+  <si>
+    <t>商品款式圖片管理</t>
+  </si>
+  <si>
+    <t>PhysicalProduct</t>
+  </si>
+  <si>
+    <t>實體商品</t>
+  </si>
+  <si>
+    <t>實體商品特有資料</t>
+  </si>
+  <si>
+    <t>DigitalProduct</t>
+  </si>
+  <si>
+    <t>數位商品</t>
+  </si>
+  <si>
+    <t>數位商品特有資料</t>
+  </si>
+  <si>
+    <t>ShippingAddresses</t>
+  </si>
+  <si>
+    <t>會員收件地址</t>
+  </si>
+  <si>
+    <t>會員配送地址管理</t>
+  </si>
+  <si>
+    <t>Favorite</t>
+  </si>
+  <si>
+    <t>商品收藏</t>
+  </si>
+  <si>
+    <t>會員收藏商品/系列</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>訂單主檔</t>
+  </si>
+  <si>
+    <t>訂單基本資料</t>
+  </si>
+  <si>
+    <t>OrderDetail</t>
+  </si>
+  <si>
+    <t>訂單明細</t>
+  </si>
+  <si>
+    <t>訂單商品明細</t>
+  </si>
+  <si>
+    <t>ECPayTransactions</t>
+  </si>
+  <si>
+    <t>綠界交易記錄</t>
+  </si>
+  <si>
+    <t>第三方金流交易資料</t>
+  </si>
+  <si>
+    <t>DigitalDownload</t>
+  </si>
+  <si>
+    <t>數位商品下載紀錄</t>
+  </si>
+  <si>
+    <t>數位商品下載管理</t>
+  </si>
+  <si>
+    <t>default1 1:正常 2:停用 3:鎖定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼雜湊(bcrypt)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未來施作--1:待審核 2:已通過 3:未通過</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未來施作--1:未申請 2:審核中 3:已通過 4:被拒絕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠界功能都先改為NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>對外顯示給支持者跟創作者 B20250901001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1721,7 +1854,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1761,12 +1894,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,7 +1991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,6 +2043,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1931,10 +2061,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2250,21 +2383,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C32A2E-2FEC-4FD8-B098-E7B900286217}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
-  <dimension ref="A2:P297"/>
+  <dimension ref="A2:P288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F278" sqref="F278"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="57.625" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
@@ -2273,27 +2698,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>436</v>
+      </c>
+    </row>
     <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2361,7 +2790,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,22 +2804,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="3">
-        <v>255</v>
+        <v>512</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>53</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -2403,7 +2832,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2411,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -2427,10 +2856,10 @@
     </row>
     <row r="11" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>32</v>
@@ -2451,7 +2880,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
@@ -2464,15 +2893,15 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -2485,12 +2914,12 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
@@ -2506,7 +2935,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
@@ -2520,15 +2949,15 @@
       <c r="P15" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="A17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2578,15 +3007,17 @@
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
@@ -2595,15 +3026,17 @@
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
@@ -2614,21 +3047,30 @@
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2655,114 +3097,116 @@
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
+      <c r="A27" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
+      <c r="A28" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D28" s="5">
+        <v>200</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>59</v>
+      <c r="A29" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="3">
-        <v>500</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
+      <c r="A30" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>500</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>61</v>
+      <c r="A31" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>24</v>
@@ -2771,167 +3215,126 @@
         <v>11</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>66</v>
+      <c r="A32" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="3">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="3">
-        <v>20</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>335</v>
+      <c r="D37" s="3">
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>336</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D38" s="3">
+        <v>50</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D39" s="5" t="s">
         <v>24</v>
       </c>
@@ -2939,61 +3342,55 @@
         <v>27</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D40" s="3">
+        <v>500</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D41" s="3">
+        <v>500</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>24</v>
@@ -3001,123 +3398,164 @@
       <c r="E42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>28</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3">
+        <v>50</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
+      <c r="A46" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3">
+        <v>20</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>8</v>
+      <c r="A47" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="3">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>21</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3">
-        <v>50</v>
+        <v>140</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="3">
-        <v>500</v>
+        <v>18</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>18</v>
@@ -3126,327 +3564,290 @@
         <v>24</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="3" t="s">
+    <row r="58" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="3">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="D58" s="3">
         <v>36</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="5">
-        <v>50</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
     <row r="59" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>102</v>
+      <c r="A59" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>112</v>
+        <v>374</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="5">
-        <v>20</v>
+      <c r="D59" s="3">
+        <v>50</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="3">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="5">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="5">
-        <v>50</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="3">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="64" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="5">
-        <v>20</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="5">
-        <v>20</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G66" s="3" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>109</v>
+      <c r="A67" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D67" s="3">
+        <v>36</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="10"/>
+      <c r="F67" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G67" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>24</v>
@@ -3454,161 +3855,205 @@
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="10"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="3" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="5">
+        <v>50</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="5">
+        <v>20</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3">
+        <v>20</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="5">
+        <v>20</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="5">
+        <v>50</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>49</v>
+      <c r="A74" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3">
         <v>10</v>
       </c>
-      <c r="D74" s="3">
-        <v>8</v>
-      </c>
       <c r="E74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="3" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>8</v>
+      <c r="A75" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="3">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="D75" s="5">
+        <v>20</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F75" s="10"/>
       <c r="G75" s="3" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="3">
-        <v>40</v>
+      <c r="D76" s="5">
+        <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D77" s="3">
+        <v>200</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>24</v>
@@ -3616,209 +4061,161 @@
       <c r="E78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="3" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>129</v>
+      <c r="A79" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D85" s="3">
         <v>8</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="3">
-        <v>8</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="D86" s="3">
         <v>36</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G86" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D87" s="3">
+        <v>40</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>24</v>
@@ -3828,631 +4225,670 @@
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="3" t="s">
-        <v>28</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="3">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="18"/>
+      <c r="A91" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>7</v>
+      <c r="A92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>299</v>
+      <c r="A93" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="3">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>309</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>49</v>
+      <c r="A94" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="3">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>301</v>
+      <c r="A95" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D95" s="5">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>305</v>
+        <v>138</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D96" s="3">
-        <v>50</v>
+        <v>141</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="97" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>313</v>
+      <c r="A97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D97" s="3">
-        <v>30</v>
+        <v>141</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="3" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>314</v>
+        <v>84</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="3">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>322</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>315</v>
+      <c r="A99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D99" s="3">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D100" s="3">
-        <v>20</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="3"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A102" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="3" t="s">
-        <v>198</v>
+      <c r="A103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>213</v>
+      <c r="A104" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D104" s="3">
+        <v>8</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G104" s="3" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>134</v>
+      <c r="A105" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D105" s="3">
+        <v>8</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G105" s="3" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>325</v>
+      <c r="A106" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D106" s="5">
+        <v>50</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>24</v>
+        <v>282</v>
+      </c>
+      <c r="D107" s="3">
+        <v>50</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>119</v>
+      <c r="A108" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>24</v>
+        <v>282</v>
+      </c>
+      <c r="D108" s="3">
+        <v>30</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D109" s="3">
+        <v>20</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="3">
+        <v>30</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="3">
+        <v>20</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="18"/>
-    </row>
-    <row r="113" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="119" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C114" s="3" t="s">
+    <row r="125" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D125" s="3">
         <v>8</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="E125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I114" s="15"/>
-    </row>
-    <row r="115" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="3">
-        <v>8</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D116" s="5">
-        <v>500</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="5">
-        <v>100</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" s="4"/>
-      <c r="G118" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="7"/>
-    </row>
-    <row r="124" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="18"/>
-    </row>
-    <row r="125" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I125" s="15"/>
     </row>
     <row r="126" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>10</v>
@@ -4464,105 +4900,105 @@
         <v>11</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>205</v>
+        <v>282</v>
+      </c>
+      <c r="D127" s="5">
+        <v>500</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="D129" s="5">
+        <v>100</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="3"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="3" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
-        <v>174</v>
+      <c r="A131" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>24</v>
@@ -4570,245 +5006,254 @@
       <c r="E131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="3" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="135" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="19"/>
+    </row>
+    <row r="136" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="3">
+        <v>8</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="3" t="s">
+      <c r="E138" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B135" s="3" t="s">
+      <c r="E139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="5">
-        <v>200</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="18"/>
-    </row>
-    <row r="139" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>49</v>
+      <c r="A140" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="3">
-        <v>8</v>
+        <v>140</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F140" s="3"/>
       <c r="G140" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="3">
-        <v>50</v>
+        <v>140</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
-        <v>155</v>
+      <c r="A143" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="3">
-        <v>500</v>
+        <v>23</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="3" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
-        <v>156</v>
+      <c r="A144" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="3">
-        <v>500</v>
+        <v>25</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
-        <v>157</v>
+      <c r="A145" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>24</v>
@@ -4816,261 +5261,267 @@
       <c r="E145" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="3"/>
+      <c r="F145" s="4"/>
       <c r="G145" s="3" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="5">
+        <v>200</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="G146" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="19"/>
+    </row>
+    <row r="150" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="3">
+        <v>8</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="3">
+        <v>50</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" s="4"/>
-      <c r="G148" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="18"/>
-    </row>
-    <row r="152" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C153" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="3">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F153" s="4"/>
       <c r="G153" s="3" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D154" s="5">
-        <v>50</v>
+      <c r="D154" s="3">
+        <v>500</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="155" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D155" s="5">
-        <v>200</v>
+      <c r="D155" s="3">
+        <v>500</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F155" s="4"/>
-      <c r="G155" s="3"/>
+      <c r="G155" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="156" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="5">
-        <v>8</v>
+        <v>141</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F156" s="3"/>
       <c r="G156" s="3" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="5">
-        <v>500</v>
+        <v>141</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F157" s="4"/>
-      <c r="G157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="159" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
-        <v>213</v>
+      <c r="A159" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F159" s="4"/>
       <c r="G159" s="3" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A162" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="18"/>
+      <c r="A162" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="19"/>
     </row>
     <row r="163" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -5097,10 +5548,10 @@
     </row>
     <row r="164" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>10</v>
@@ -5115,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -5123,7 +5574,7 @@
         <v>8</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>10</v>
@@ -5143,10 +5594,10 @@
     </row>
     <row r="166" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>14</v>
@@ -5162,13 +5613,13 @@
     </row>
     <row r="167" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>24</v>
@@ -5181,10 +5632,10 @@
     </row>
     <row r="168" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>14</v>
@@ -5200,10 +5651,10 @@
     </row>
     <row r="169" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>14</v>
@@ -5219,13 +5670,13 @@
     </row>
     <row r="170" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>24</v>
@@ -5238,10 +5689,10 @@
     </row>
     <row r="171" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>32</v>
@@ -5254,15 +5705,15 @@
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>18</v>
@@ -5280,10 +5731,10 @@
     </row>
     <row r="173" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>18</v>
@@ -5298,15 +5749,15 @@
       <c r="G173" s="3"/>
     </row>
     <row r="176" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A176" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="18"/>
+      <c r="A176" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="19"/>
     </row>
     <row r="177" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -5333,10 +5784,10 @@
     </row>
     <row r="178" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>10</v>
@@ -5351,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -5359,7 +5810,7 @@
         <v>8</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>10</v>
@@ -5382,7 +5833,7 @@
         <v>49</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>10</v>
@@ -5397,15 +5848,15 @@
         <v>20</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>10</v>
@@ -5420,15 +5871,15 @@
         <v>20</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>23</v>
@@ -5441,15 +5892,15 @@
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>18</v>
@@ -5464,15 +5915,15 @@
       <c r="G183" s="3"/>
     </row>
     <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A186" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="17"/>
-      <c r="G186" s="18"/>
+      <c r="A186" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="19"/>
     </row>
     <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -5499,16 +5950,16 @@
     </row>
     <row r="188" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="3">
-        <v>8</v>
+      <c r="D188" s="5">
+        <v>13</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>11</v>
@@ -5517,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -5525,7 +5976,7 @@
         <v>8</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>10</v>
@@ -5545,10 +5996,10 @@
     </row>
     <row r="190" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>10</v>
@@ -5563,1323 +6014,1063 @@
         <v>20</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D191" s="3">
+        <v>13</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+      <c r="G191" s="3" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="192" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+    </row>
+    <row r="193" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="4"/>
+      <c r="G193" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="4"/>
+      <c r="G194" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="3">
+        <v>20</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="5">
+        <v>50</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="5">
+        <v>20</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="5">
+        <v>300</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+    </row>
+    <row r="199" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="4"/>
-      <c r="G192" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A195" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="18"/>
-    </row>
-    <row r="196" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" s="5">
-        <v>13</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" s="5">
-        <v>36</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A199" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D199" s="3">
-        <v>8</v>
+      <c r="D199" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
     </row>
     <row r="200" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D200" s="3">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F200" s="3"/>
-      <c r="G200" s="3" t="s">
-        <v>338</v>
-      </c>
+      <c r="G200" s="3"/>
     </row>
     <row r="201" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F202" s="4"/>
-      <c r="G202" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F203" s="4"/>
-      <c r="G203" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
     <row r="204" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A204" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="3">
+      <c r="A204" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="19"/>
+    </row>
+    <row r="205" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="5">
+        <v>13</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A207" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="3">
+        <v>8</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-    </row>
-    <row r="205" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="5">
-        <v>50</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-    </row>
-    <row r="206" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="5">
+      <c r="G207" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A208" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="3">
+        <v>8</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-    </row>
-    <row r="207" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="5">
-        <v>300</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-    </row>
-    <row r="208" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
+      <c r="G208" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="209" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D209" s="3">
+        <v>100</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
+      <c r="G209" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="210" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F210" s="4"/>
+      <c r="G210" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="4"/>
+      <c r="G211" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="4"/>
+      <c r="G212" s="3"/>
     </row>
     <row r="213" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A213" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B213" s="17"/>
-      <c r="C213" s="17"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="17"/>
-      <c r="F213" s="17"/>
-      <c r="G213" s="18"/>
+      <c r="A213" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" s="4"/>
+      <c r="G213" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="214" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="4"/>
+      <c r="G214" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F215" s="4"/>
+      <c r="G215" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F216" s="4"/>
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="4"/>
+      <c r="G217" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A220" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="19"/>
+    </row>
+    <row r="221" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A215" s="13" t="s">
+    <row r="222" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A222" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="5">
+        <v>15</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A223" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D223" s="5">
         <v>13</v>
       </c>
-      <c r="E215" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A216" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C216" s="3" t="s">
+      <c r="E223" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A224" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D224" s="3">
         <v>8</v>
       </c>
-      <c r="E216" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F216" s="3" t="s">
+      <c r="E224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G216" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A217" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D217" s="3">
-        <v>8</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D218" s="3">
-        <v>100</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="4"/>
-      <c r="G219" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F220" s="4"/>
-      <c r="G220" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F221" s="4"/>
-      <c r="G221" s="3"/>
-    </row>
-    <row r="222" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F222" s="4"/>
-      <c r="G222" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F223" s="4"/>
-      <c r="G223" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F224" s="4"/>
       <c r="G224" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>24</v>
+        <v>282</v>
+      </c>
+      <c r="D225" s="3">
+        <v>20</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F225" s="4"/>
+      <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
     <row r="226" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="C226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="3">
+        <v>20</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F226" s="4"/>
-      <c r="G226" s="3" t="s">
+    </row>
+    <row r="227" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="B227" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="3">
+        <v>20</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F227" s="4"/>
+      <c r="G227" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="4"/>
+      <c r="G228" s="3"/>
     </row>
     <row r="229" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A229" s="17" t="s">
+      <c r="A229" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="4"/>
+      <c r="G229" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B229" s="17"/>
-      <c r="C229" s="17"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="17"/>
-      <c r="F229" s="17"/>
-      <c r="G229" s="18"/>
     </row>
     <row r="230" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A230" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" s="4"/>
+      <c r="G230" s="3"/>
     </row>
     <row r="231" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A231" s="13" t="s">
-        <v>356</v>
+      <c r="A231" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F231" s="4"/>
+      <c r="G231" s="3"/>
+    </row>
+    <row r="232" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232" s="4"/>
+      <c r="G232" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="5">
         <v>10</v>
       </c>
-      <c r="D231" s="5">
-        <v>15</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A232" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="5">
-        <v>13</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A233" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" s="3">
-        <v>8</v>
-      </c>
       <c r="E233" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F233" s="4"/>
       <c r="G233" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>327</v>
+      <c r="A234" s="17" t="s">
+        <v>361</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D234" s="3">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F234" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F234" s="4"/>
       <c r="G234" s="3"/>
     </row>
     <row r="235" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" s="3">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F235" s="3"/>
+      <c r="F235" s="4"/>
       <c r="G235" s="3" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236" s="5">
+        <v>100</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F236" s="4"/>
+      <c r="G236" s="3"/>
+    </row>
+    <row r="239" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A239" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="19"/>
+    </row>
+    <row r="240" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" s="3">
+        <v>8</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A242" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="5">
+        <v>36</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A243" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="5">
+        <v>36</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E236" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F236" s="4"/>
-      <c r="G236" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F237" s="4"/>
-      <c r="G237" s="3"/>
-    </row>
-    <row r="238" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F238" s="4"/>
-      <c r="G238" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" s="4"/>
-      <c r="G239" s="3"/>
-    </row>
-    <row r="240" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F240" s="4"/>
-      <c r="G240" s="3"/>
-    </row>
-    <row r="241" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" s="5">
-        <v>20</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F241" s="4"/>
-      <c r="G241" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D242" s="5">
-        <v>10</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F242" s="4"/>
-      <c r="G242" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A243" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F243" s="4"/>
-      <c r="G243" s="3"/>
+      <c r="G243" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="244" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F244" s="4"/>
-      <c r="G244" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="G244" s="3"/>
     </row>
     <row r="245" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>378</v>
+        <v>266</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D245" s="5">
-        <v>100</v>
+        <v>141</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="248" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A248" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B248" s="17"/>
-      <c r="C248" s="17"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17"/>
-      <c r="F248" s="17"/>
-      <c r="G248" s="18"/>
-    </row>
-    <row r="249" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A250" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="3">
-        <v>8</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A251" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="5">
-        <v>36</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A252" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="5">
-        <v>36</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" s="4"/>
-      <c r="G253" s="3"/>
-    </row>
-    <row r="254" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F254" s="4"/>
-      <c r="G254" s="3"/>
-    </row>
-    <row r="255" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C255" s="3" t="s">
+    <row r="246" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D255" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F255" s="4"/>
-      <c r="G255" s="3"/>
-    </row>
-    <row r="256" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C256" s="3" t="s">
+      <c r="D246" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246" s="4"/>
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D256" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F256" s="4"/>
-      <c r="G256" s="3"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="B259" s="22"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="22"/>
-      <c r="E259" s="22"/>
-      <c r="F259" s="22"/>
-      <c r="G259" s="22"/>
-    </row>
-    <row r="260" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A260" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B260" s="17"/>
-      <c r="C260" s="17"/>
-      <c r="D260" s="17"/>
-      <c r="E260" s="17"/>
-      <c r="F260" s="17"/>
-      <c r="G260" s="18"/>
-    </row>
-    <row r="261" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A262" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D262" s="3">
-        <v>8</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A263" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" s="3">
-        <v>8</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A264" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="3">
-        <v>36</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297"/>
-      <c r="B297"/>
-      <c r="C297"/>
-      <c r="D297"/>
-      <c r="E297"/>
-      <c r="F297"/>
-      <c r="G297"/>
+      <c r="D247" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" s="4"/>
+      <c r="G247" s="3"/>
+    </row>
+    <row r="288" spans="1:7" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+      <c r="B288"/>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288"/>
+      <c r="G288"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A248:G248"/>
-    <mergeCell ref="A151:G151"/>
+  <mergeCells count="18">
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A239:G239"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A162:G162"/>
-    <mergeCell ref="A213:G213"/>
-    <mergeCell ref="A229:G229"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="A204:G204"/>
+    <mergeCell ref="A220:G220"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A176:G176"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A259:G259"/>
-    <mergeCell ref="A195:G195"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A149:G149"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0.商務軟體分析_專題製作/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/商品管理與販售平台系統資料規格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5941FAE-D43A-4429-9446-DF82B5DBAE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1CCBA9-D552-485B-87E7-8B6AC68F0E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="1200" windowWidth="17940" windowHeight="15345" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
+    <workbookView xWindow="9345" yWindow="1065" windowWidth="25770" windowHeight="17775" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
   <sheets>
     <sheet name="資料字典" sheetId="1" r:id="rId1"/>
@@ -1896,13 +1896,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2227,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
   <dimension ref="A2:P283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H226" sqref="H226"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2247,15 +2247,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="18" t="s">
@@ -2263,15 +2263,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2498,15 +2498,15 @@
       <c r="P15" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2908,15 +2908,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3396,15 +3396,15 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3573,15 +3573,15 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -3809,15 +3809,15 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -4160,15 +4160,15 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="21"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="20"/>
     </row>
     <row r="112" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -4522,22 +4522,22 @@
         <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="21"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="20"/>
     </row>
     <row r="132" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -4735,15 +4735,15 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="21"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="20"/>
     </row>
     <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -4981,15 +4981,15 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
+      <c r="A157" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="21"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="20"/>
     </row>
     <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -5206,15 +5206,15 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A170" s="20" t="s">
+      <c r="A170" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="21"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="20"/>
     </row>
     <row r="171" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -5372,15 +5372,15 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A180" s="20" t="s">
+      <c r="A180" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="21"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="20"/>
     </row>
     <row r="181" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -5692,15 +5692,15 @@
       <c r="G195" s="3"/>
     </row>
     <row r="199" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="21"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="20"/>
     </row>
     <row r="200" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -6003,15 +6003,15 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A216" s="20" t="s">
+      <c r="A216" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
-      <c r="D216" s="20"/>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="21"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="20"/>
     </row>
     <row r="217" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
@@ -6323,15 +6323,15 @@
       <c r="G231" s="3"/>
     </row>
     <row r="234" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A234" s="20" t="s">
+      <c r="A234" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
-      <c r="D234" s="20"/>
-      <c r="E234" s="20"/>
-      <c r="F234" s="20"/>
-      <c r="G234" s="21"/>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="20"/>
     </row>
     <row r="235" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -6396,7 +6396,7 @@
         <v>11</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>35</v>
@@ -6512,6 +6512,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A234:G234"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A78:G78"/>
@@ -6524,11 +6529,6 @@
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A157:G157"/>
     <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A39:G39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
